--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1622.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1622.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146101504760557</v>
+        <v>0.8484175205230713</v>
       </c>
       <c r="B1">
-        <v>2.772591075335328</v>
+        <v>2.923980474472046</v>
       </c>
       <c r="C1">
-        <v>4.332187202540407</v>
+        <v>4.633658885955811</v>
       </c>
       <c r="D1">
-        <v>2.229917527253744</v>
+        <v>2.794754981994629</v>
       </c>
       <c r="E1">
-        <v>1.071190908652561</v>
+        <v>1.435720443725586</v>
       </c>
     </row>
   </sheetData>
